--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEEBC1A-6336-4CE4-AD42-468266551886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1685B6BF-3730-43D6-8F43-4AC23DA080F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="테이블 명세표" sheetId="1" r:id="rId1"/>
-    <sheet name="Item_Table" sheetId="3" r:id="rId2"/>
-    <sheet name="Item_Grade" sheetId="7" r:id="rId3"/>
-    <sheet name="Item_Drop" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
+    <sheet name="Item_Grade" sheetId="7" r:id="rId2"/>
+    <sheet name="Item_Drop" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="테이블 명세표" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -659,8 +659,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J10" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:J2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J2" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="Id" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="Item_Name" dataDxfId="8"/>
@@ -993,6 +993,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E142078-3E9E-421E-95D2-E943B99AB92D}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423DBB19-A89B-410F-B852-2D857E423C6C}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19EB28-AE2E-4C4C-B24E-CC7D4F81DA9B}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75767BC6-5953-440C-9975-DAB3B429A1BF}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:I35"/>
@@ -1379,386 +1721,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10000001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10000009</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E142078-3E9E-421E-95D2-E943B99AB92D}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423DBB19-A89B-410F-B852-2D857E423C6C}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19EB28-AE2E-4C4C-B24E-CC7D4F81DA9B}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1003</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>1001</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1685B6BF-3730-43D6-8F43-4AC23DA080F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF233482-B1B3-4984-8040-1B0EB7928295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="2610" yWindow="960" windowWidth="22500" windowHeight="14100" activeTab="4" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>몬스터 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,42 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Max_Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +315,46 @@
   </si>
   <si>
     <t>레어 드랍 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemMaxStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemSprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,16 +666,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:J2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J2" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="Id" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="Item_Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D64D0C15-F589-416E-B856-5F1DC115F9FC}" name="Item_Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CE113AF9-613E-49CA-B447-B1525DEB3A17}" name="Item_Price" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{A8E2D888-AB7C-4716-B1EA-8FD69C4ADAAF}" name="Item_Atk" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{EB442952-2653-429F-8896-B07B7233596F}" name="Item_Def" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{CACB3A38-12A5-4763-B93D-7A15E2864DA5}" name="Item_Description" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{432751F2-EB69-4485-9630-C99FDF56208A}" name="Item_Max_Stack" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{B1A753B1-43B2-4F5B-BA45-C10C5C3F87FF}" name="Item_Grade" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{3CD96225-3F26-4A32-BD65-734F502BF442}" name="Item_Image" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="_itemName" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D64D0C15-F589-416E-B856-5F1DC115F9FC}" name="_itemType" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{CE113AF9-613E-49CA-B447-B1525DEB3A17}" name="_itemPrice" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A8E2D888-AB7C-4716-B1EA-8FD69C4ADAAF}" name="_itemAtk" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{EB442952-2653-429F-8896-B07B7233596F}" name="_itemDef" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{CACB3A38-12A5-4763-B93D-7A15E2864DA5}" name="_itemDescription" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{432751F2-EB69-4485-9630-C99FDF56208A}" name="_itemMaxStack" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{B1A753B1-43B2-4F5B-BA45-C10C5C3F87FF}" name="_itemGrade" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{3CD96225-3F26-4A32-BD65-734F502BF442}" name="_itemSprite" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,8 +1001,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1017,34 +1021,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1055,7 +1059,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1067,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1114,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1136,7 +1140,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1193,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1198,7 +1202,7 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1223,13 +1227,13 @@
         <v>1001</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1237,7 +1241,7 @@
         <v>1002</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1245,18 +1249,18 @@
         <v>1003</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1264,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1001</v>
@@ -1275,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1002</v>
@@ -1286,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1003</v>
@@ -1297,10 +1301,10 @@
         <v>1001</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,8 +1343,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1362,7 @@
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -1383,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1397,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -1411,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1425,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1439,10 +1443,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
@@ -1453,10 +1457,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -1467,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -1481,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1495,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -1509,19 +1513,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" s="14"/>
     </row>
@@ -1561,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -1575,13 +1579,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -1589,13 +1593,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -1603,13 +1607,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1617,19 +1621,19 @@
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C28" s="14"/>
     </row>
@@ -1641,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1652,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -1664,10 +1668,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -1675,13 +1679,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -1689,13 +1693,13 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -1703,13 +1707,13 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF233482-B1B3-4984-8040-1B0EB7928295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7710FF0A-C00C-449F-88EB-9827954F4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="960" windowWidth="22500" windowHeight="14100" activeTab="4" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>몬스터 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,46 @@
   </si>
   <si>
     <t>_itemSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력물약(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나물약(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemHpRecover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 마나물약이다. MP를 소량 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 체력물약이다. HP를 소량 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemMpRecover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/LittleHpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/LittleMpPotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,15 +703,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:J2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J2" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:L4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:L4" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="_itemName" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{D64D0C15-F589-416E-B856-5F1DC115F9FC}" name="_itemType" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{CE113AF9-613E-49CA-B447-B1525DEB3A17}" name="_itemPrice" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{A8E2D888-AB7C-4716-B1EA-8FD69C4ADAAF}" name="_itemAtk" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{EB442952-2653-429F-8896-B07B7233596F}" name="_itemDef" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{8642A9FE-E714-468C-9594-BDFCD4674B86}" name="_itemHpRecover"/>
+    <tableColumn id="13" xr3:uid="{8193A0DA-77BF-439C-9044-98E5D91C101B}" name="_itemMpRecover"/>
     <tableColumn id="8" xr3:uid="{CACB3A38-12A5-4763-B93D-7A15E2864DA5}" name="_itemDescription" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{432751F2-EB69-4485-9630-C99FDF56208A}" name="_itemMaxStack" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{B1A753B1-43B2-4F5B-BA45-C10C5C3F87FF}" name="_itemGrade" dataDxfId="1"/>
@@ -999,10 +1041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1011,15 +1053,16 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1039,19 +1082,25 @@
         <v>74</v>
       </c>
       <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -1070,14 +1119,81 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1343,8 +1459,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgns\OneDrive\문서\GitHub\Unity\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7710FF0A-C00C-449F-88EB-9827954F4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D60BA1-59F4-4BEC-A0B9-DEF509E1443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>몬스터 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +393,22 @@
   </si>
   <si>
     <t>Images/Items/LittleMpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/chest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,8 +717,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:L4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:L4" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:L5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:L5" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="_itemName" dataDxfId="8"/>
@@ -1041,28 +1055,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1100,7 +1114,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -1135,7 +1149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>20000001</v>
       </c>
@@ -1167,7 +1181,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>20000002</v>
       </c>
@@ -1194,6 +1208,35 @@
       </c>
       <c r="L4" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>30000002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1213,14 +1256,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1228,12 +1271,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H14">
         <v>100</v>
       </c>
@@ -1252,9 +1295,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1274,21 +1317,21 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1296,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -1304,7 +1347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -1313,7 +1356,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -1322,15 +1365,15 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1352,7 +1395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1360,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1368,7 +1411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1390,7 +1433,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1401,7 +1444,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1412,7 +1455,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>1001</v>
       </c>
@@ -1423,27 +1466,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1463,27 +1506,27 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="47.375" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.8984375" customWidth="1"/>
+    <col min="5" max="5" width="47.3984375" customWidth="1"/>
+    <col min="6" max="6" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1498,7 +1541,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1512,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1526,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1540,7 +1583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -1554,7 +1597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -1568,7 +1611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -1582,7 +1625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -1596,7 +1639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
         <v>8</v>
       </c>
@@ -1610,7 +1653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -1624,7 +1667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1638,15 +1681,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1705,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
@@ -1676,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6">
         <v>2</v>
       </c>
@@ -1690,7 +1733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6">
         <v>3</v>
       </c>
@@ -1704,7 +1747,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6">
         <v>4</v>
       </c>
@@ -1718,7 +1761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="6">
         <v>5</v>
       </c>
@@ -1732,7 +1775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="7">
         <v>6</v>
       </c>
@@ -1746,14 +1789,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -1767,7 +1810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="12">
         <v>1</v>
       </c>
@@ -1779,7 +1822,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="12">
         <v>2</v>
       </c>
@@ -1790,7 +1833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="12">
         <v>3</v>
       </c>
@@ -1804,7 +1847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="12">
         <v>4</v>
       </c>
@@ -1818,7 +1861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="12">
         <v>5</v>
       </c>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7710FF0A-C00C-449F-88EB-9827954F4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CEA3EC-E47D-462D-A810-5443CD3FC2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>몬스터 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>Images/Items/LittleMpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_isShop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,9 +707,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:L4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:L4" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:M4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:M4" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="_itemName" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{D64D0C15-F589-416E-B856-5F1DC115F9FC}" name="_itemType" dataDxfId="7"/>
@@ -717,6 +721,7 @@
     <tableColumn id="8" xr3:uid="{CACB3A38-12A5-4763-B93D-7A15E2864DA5}" name="_itemDescription" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{432751F2-EB69-4485-9630-C99FDF56208A}" name="_itemMaxStack" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{B1A753B1-43B2-4F5B-BA45-C10C5C3F87FF}" name="_itemGrade" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FE34F46D-2DD6-4FC8-B484-98788FAB9881}" name="_isShop"/>
     <tableColumn id="10" xr3:uid="{3CD96225-3F26-4A32-BD65-734F502BF442}" name="_itemSprite" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1041,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1058,11 +1063,11 @@
     <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1097,10 +1102,13 @@
         <v>77</v>
       </c>
       <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -1134,8 +1142,11 @@
       <c r="K2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000001</v>
       </c>
@@ -1163,11 +1174,14 @@
       <c r="K3" t="s">
         <v>80</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20000002</v>
       </c>
@@ -1192,7 +1206,10 @@
       <c r="K4" t="s">
         <v>80</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgns\OneDrive\문서\GitHub\Unity\Project_D\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D60BA1-59F4-4BEC-A0B9-DEF509E1443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C0691-15C2-432E-B056-2238295745CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
     <sheet name="Item_Grade" sheetId="7" r:id="rId2"/>
     <sheet name="Item_Drop" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Shop_Table" sheetId="4" r:id="rId4"/>
     <sheet name="테이블 명세표" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,9 +38,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
-  <si>
-    <t>몬스터 테이블</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 공격력 스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 방어력 스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 최대 그룹 갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 검이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Images/Items 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 드랍테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 테이블 명세표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급 테이블 명세표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Grade_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Grade_Per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급별 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Grade_Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Grade_Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Grade_Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급별 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급별 추가 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급별 추가 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 드랍 테이블 명세표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -52,35 +204,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
+    <t>커먼 드랍 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언커먼 드랍 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,175 +224,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 공격력 스텟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 방어력 스텟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 최대 그룹 갯수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 드랍 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버섯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001^10002^10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002^10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001/23%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002/42%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 검이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Images/Items 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 드랍테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 테이블 명세표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급 테이블 명세표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Grade_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Grade_Per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급별 등장 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Grade_Atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Grade_Def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Grade_Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급별 색상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급별 추가 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급별 추가 방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 드랍 테이블 명세표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍아이템</t>
+    <t>Common_Drop_Per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnCommon_Drop_Per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Split Int/Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare_Drop_Per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어 드랍 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemMaxStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,51 +292,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커먼 드랍 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언커먼 드랍 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common_Drop_Per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnCommon_Drop_Per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Split Int/Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare_Drop_Per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어 드랍 확률</t>
+    <t>체력물약(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나물약(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemHpRecover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 마나물약이다. MP를 소량 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 체력물약이다. HP를 소량 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemMpRecover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/LittleHpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/LittleMpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,95 +340,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemAtk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemDef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemMaxStack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemSprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력물약(소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나물약(소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemHpRecover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 마나물약이다. MP를 소량 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 체력물약이다. HP를 소량 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_itemMpRecover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Items/LittleHpPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Items/LittleMpPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어구이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Items/chest</t>
+    <t>_Item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Item3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Item4</t>
+  </si>
+  <si>
+    <t>_Item5</t>
+  </si>
+  <si>
+    <t>_Item6</t>
+  </si>
+  <si>
+    <t>_Item7</t>
+  </si>
+  <si>
+    <t>_Item8</t>
+  </si>
+  <si>
+    <t>_Item9</t>
+  </si>
+  <si>
+    <t>_Item10</t>
+  </si>
+  <si>
+    <t>Images/Items/Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,71 +1027,70 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1140,28 +1108,37 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000001</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>300</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <v>50</v>
       </c>
@@ -1169,31 +1146,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20000002</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>300</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -1201,42 +1184,54 @@
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30000002</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>20</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1256,27 +1251,27 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>100</v>
       </c>
@@ -1295,11 +1290,11 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1311,185 +1306,75 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19EB28-AE2E-4C4C-B24E-CC7D4F81DA9B}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>10002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B2">
+        <v>20000001</v>
+      </c>
+      <c r="C2">
+        <v>20000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>10003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>1001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>1003</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <v>1001</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1506,373 +1391,373 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.8984375" customWidth="1"/>
-    <col min="5" max="5" width="47.3984375" customWidth="1"/>
-    <col min="6" max="6" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C0691-15C2-432E-B056-2238295745CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4154F3D9-D014-493D-A475-505577F94476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,14 @@
   </si>
   <si>
     <t>Images/Items/Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_height</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,9 +694,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:L5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:L5" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:N5" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="_itemName" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{D64D0C15-F589-416E-B856-5F1DC115F9FC}" name="_itemType" dataDxfId="7"/>
@@ -700,6 +708,8 @@
     <tableColumn id="8" xr3:uid="{CACB3A38-12A5-4763-B93D-7A15E2864DA5}" name="_itemDescription" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{432751F2-EB69-4485-9630-C99FDF56208A}" name="_itemMaxStack" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{B1A753B1-43B2-4F5B-BA45-C10C5C3F87FF}" name="_itemGrade" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{2851296A-9EEF-464A-8087-EB3AF094871D}" name="_width"/>
+    <tableColumn id="2" xr3:uid="{957B4014-F4FF-449B-94D3-6003D31BAEEE}" name="_height"/>
     <tableColumn id="10" xr3:uid="{3CD96225-3F26-4A32-BD65-734F502BF442}" name="_itemSprite" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1024,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,10 +1051,11 @@
     <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1079,10 +1090,16 @@
         <v>59</v>
       </c>
       <c r="L1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -1116,11 +1133,17 @@
       <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000001</v>
       </c>
@@ -1154,11 +1177,17 @@
       <c r="K3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20000002</v>
       </c>
@@ -1192,11 +1221,17 @@
       <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30000002</v>
       </c>
@@ -1230,7 +1265,13 @@
       <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4154F3D9-D014-493D-A475-505577F94476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF0BBA5-694A-44FC-94A8-6D0A3F1DB0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,34 @@
   </si>
   <si>
     <t>_height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언커먼아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,8 +725,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:N5" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:N8" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="_itemName" dataDxfId="8"/>
@@ -1034,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1274,6 +1305,66 @@
       <c r="N5" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>10000011</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>10000012</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>10000013</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF0BBA5-694A-44FC-94A8-6D0A3F1DB0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0FDA8-A4CD-4280-90B7-FE28D5AC6270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +414,18 @@
   </si>
   <si>
     <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/Unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,9 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1076,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,64 +1316,55 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6">
         <v>10000011</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="s">
+      <c r="K6" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7">
         <v>10000012</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="15"/>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8">
         <v>10000013</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="15"/>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0FDA8-A4CD-4280-90B7-FE28D5AC6270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E1B94-8EC0-4833-85FC-BA5DF5D2158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,18 @@
   </si>
   <si>
     <t>Images/Items/Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언커먼이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1089,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1325,8 +1337,35 @@
       <c r="C6" t="s">
         <v>92</v>
       </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
       <c r="K6" t="s">
         <v>93</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
       </c>
       <c r="N6" t="s">
         <v>96</v>
@@ -1342,8 +1381,35 @@
       <c r="C7" t="s">
         <v>92</v>
       </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
       <c r="K7" t="s">
         <v>94</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
       </c>
       <c r="N7" t="s">
         <v>97</v>
@@ -1359,8 +1425,35 @@
       <c r="C8" t="s">
         <v>92</v>
       </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
       <c r="K8" t="s">
         <v>95</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>98</v>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project_D\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E1B94-8EC0-4833-85FC-BA5DF5D2158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A29E6-A314-490A-B11D-946602952E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="6840" yWindow="330" windowWidth="22500" windowHeight="14100" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
-    <sheet name="Item_Grade" sheetId="7" r:id="rId2"/>
-    <sheet name="Item_Drop" sheetId="8" r:id="rId3"/>
-    <sheet name="Shop_Table" sheetId="4" r:id="rId4"/>
-    <sheet name="테이블 명세표" sheetId="1" r:id="rId5"/>
+    <sheet name="테이블 명세표" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,22 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 검이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,14 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 드랍테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 테이블 명세표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,59 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어구이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Item2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Item3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Item4</t>
-  </si>
-  <si>
-    <t>_Item5</t>
-  </si>
-  <si>
-    <t>_Item6</t>
-  </si>
-  <si>
-    <t>_Item7</t>
-  </si>
-  <si>
-    <t>_Item8</t>
-  </si>
-  <si>
-    <t>_Item9</t>
-  </si>
-  <si>
-    <t>_Item10</t>
-  </si>
-  <si>
-    <t>Images/Items/Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Items/Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,23 +309,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언커먼아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uncommon</t>
+    <t>라케시스의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트로포스의 바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 투구. 어느 여신의 이름이 새겨져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 갑옷. 어느 여신의 이름이 새겨져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 바지. 어느 여신의 이름이 새겨져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 신발. 어느 여신의 이름이 새겨져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 반지. 어느 여신의 이름이 새겨져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 목걸이. 어느 여신의 이름이 새겨져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,31 +377,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Items/Uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Items/Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Items/Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언커먼이다.</t>
+    <t>클로소의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노나의 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데키마의 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르타의 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 갑옷이다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 바지다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 투구다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 팬츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 아머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 롱소드다. 조금 무딘 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 열쇠다. 어떠한 상자를 여는 데 필요할 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동으로 만든 반지다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동으로 만든 목걸이다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,8 +761,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:N8" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:N16" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00019C6F-B17B-437F-8573-B68440833CAD}" name="_itemName" dataDxfId="8"/>
@@ -1086,21 +1104,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.375" customWidth="1"/>
@@ -1109,46 +1127,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1156,10 +1174,10 @@
         <v>10000001</v>
       </c>
       <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1177,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1192,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1200,10 +1218,10 @@
         <v>20000001</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -1221,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1236,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1244,10 +1262,10 @@
         <v>20000002</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -1265,13 +1283,13 @@
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1280,86 +1298,60 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>30000002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
+      <c r="A5" s="15">
+        <v>20000005</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="I5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="15">
+        <v>5</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>30000001</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10000011</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6">
-        <v>300</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -1367,97 +1359,307 @@
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>30000002</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>30000003</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>30000004</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>30000005</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>30000006</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>10000003</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10000012</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>10000004</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D7">
-        <v>300</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7">
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7">
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>10000002</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10000013</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>10000005</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>10000006</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8">
+      <c r="C16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
+      <c r="N16" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1469,145 +1671,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E142078-3E9E-421E-95D2-E943B99AB92D}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423DBB19-A89B-410F-B852-2D857E423C6C}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19EB28-AE2E-4C4C-B24E-CC7D4F81DA9B}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10001</v>
-      </c>
-      <c r="B2">
-        <v>20000001</v>
-      </c>
-      <c r="C2">
-        <v>20000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75767BC6-5953-440C-9975-DAB3B429A1BF}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:I35"/>
@@ -1631,7 +1694,7 @@
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -1656,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1670,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1684,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1698,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1712,10 +1775,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -1726,10 +1789,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
@@ -1740,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -1754,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1768,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1782,19 +1845,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" s="14"/>
     </row>
@@ -1834,13 +1897,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -1848,13 +1911,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -1862,13 +1925,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -1876,13 +1939,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1890,19 +1953,19 @@
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C28" s="14"/>
     </row>
@@ -1914,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1925,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -1937,10 +2000,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -1948,13 +2011,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -1962,13 +2025,13 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -1976,13 +2039,13 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgns\OneDrive\문서\GitHub\Unity\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A29E6-A314-490A-B11D-946602952E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01810519-BB96-42E8-9B16-1503542FEB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="330" windowWidth="22500" windowHeight="14100" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pants</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,6 +446,10 @@
   </si>
   <si>
     <t>동으로 만든 목걸이다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,9 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,8 +760,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:N16" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N11">
-    <sortCondition ref="A1:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
+    <sortCondition ref="A1:A16"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
@@ -1107,25 +1104,25 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.3984375" customWidth="1"/>
+    <col min="14" max="14" width="27.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1169,12 +1166,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10000001</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1195,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1213,325 +1210,294 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
+        <v>10000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>10000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>10000004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>10000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>10000006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>20000001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="D3">
+      <c r="D8">
         <v>300</v>
       </c>
-      <c r="E3">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G8">
         <v>50</v>
       </c>
-      <c r="H3">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="J3">
+      <c r="J8">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K8" t="s">
         <v>56</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>20000002</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="D4">
+      <c r="D9">
         <v>300</v>
       </c>
-      <c r="E4">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H9">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="J4">
+      <c r="J9">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K9" t="s">
         <v>56</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>20000005</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="I5" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="15">
-        <v>5</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>30000001</v>
+      </c>
+      <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>30000001</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="I6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6">
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11">
         <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>30000002</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="I7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>30000003</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
-        <v>30000004</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="I9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>30000005</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>30000006</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <v>10000003</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>90</v>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>30000002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1539,29 +1505,25 @@
       <c r="M12">
         <v>3</v>
       </c>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
-        <v>10000004</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>90</v>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>30000003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -1569,29 +1531,25 @@
       <c r="M13">
         <v>3</v>
       </c>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <v>10000002</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="I14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>90</v>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>30000004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>80</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1599,59 +1557,51 @@
       <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>10000005</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="15" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>30000005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>30000006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="I15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>10000006</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="I16" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="15">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>90</v>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>80</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1659,7 +1609,6 @@
       <c r="M16">
         <v>2</v>
       </c>
-      <c r="N16" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1679,27 +1628,27 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="47.375" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.8984375" customWidth="1"/>
+    <col min="5" max="5" width="47.3984375" customWidth="1"/>
+    <col min="6" max="6" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1714,7 +1663,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1728,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1742,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1756,7 +1705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -1770,7 +1719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -1784,7 +1733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -1798,7 +1747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -1812,7 +1761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
         <v>8</v>
       </c>
@@ -1826,7 +1775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -1840,7 +1789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1854,15 +1803,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1827,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
@@ -1892,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6">
         <v>2</v>
       </c>
@@ -1906,7 +1855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6">
         <v>3</v>
       </c>
@@ -1920,7 +1869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6">
         <v>4</v>
       </c>
@@ -1934,7 +1883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="6">
         <v>5</v>
       </c>
@@ -1948,7 +1897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="7">
         <v>6</v>
       </c>
@@ -1962,14 +1911,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -1983,7 +1932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="12">
         <v>1</v>
       </c>
@@ -1995,7 +1944,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="12">
         <v>2</v>
       </c>
@@ -2006,7 +1955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="12">
         <v>3</v>
       </c>
@@ -2020,7 +1969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="12">
         <v>4</v>
       </c>
@@ -2034,7 +1983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="12">
         <v>5</v>
       </c>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A29E6-A314-490A-B11D-946602952E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E574EE26-DBFF-433B-8F6D-352B4B562772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="330" windowWidth="22500" windowHeight="14100" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="196">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Items/Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pants</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,31 +361,451 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로소의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노나의 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데키마의 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르타의 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 팬츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 아머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 열쇠다. 어떠한 상자를 여는 데 필요할 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Consume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>마나물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력물약이다. HP를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나물약이다. MP를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 검. 비밀을 간직한 느낌이 든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스타드 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 롱 소드다. 조금 무딘 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonPants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/HighHpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/HighMpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 레깅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 투구다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 갑옷이다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 바지다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 신발이다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonPants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드 소드다. 관리가 잘 된 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 투구다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 갑옷이다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 바지다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 신발이다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은으로 만든 목걸이다. 누군가의 무사를 기원할 때 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은으로 만든 반지다. 사랑하는 사람과 약속의 증표로 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스타드 소드다. 노련한 전사가 쓴 듯한 느낌을 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 아머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 팬츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 투구다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 갑옷이다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 바지다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 신발이다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동으로 만든 반지다. 누군가 소중히 차고 있던 느낌이 든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동으로 만든 목걸이다. 누군가의 소중한 염원이 느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금으로 만든 반지다. 사랑의 결실의 의미로 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금으로 만든 목걸이다. 누군가의 목표를 향한 열정이 느껴진다. 무슨 목표였을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 레깅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라디우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라디우스다. 날카롭게 벼려져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 갑옷이다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 투구다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 바지다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 신발이다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금으로 만든 반지다. 누군가의 이름이 쓰여져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금으로 만든 목걸이다. 로켓이지만 사진부분이 열리지 않는다. 아마 소중한 사람의 사진일 것으로 추측된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클로소의 투구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노나의 신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데키마의 반지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르타의 목걸이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helmet</t>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RarePants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniquePants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueNecklace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -401,55 +813,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낡은 갑옷이다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 바지다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 투구다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레더 팬츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레더 아머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레더 헬름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동 반지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동 목걸이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 롱소드다. 조금 무딘 듯 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 열쇠다. 어떠한 상자를 여는 데 필요할 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동으로 만든 반지다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동으로 만든 목걸이다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
+    <t>Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,9 +1070,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,10 +1126,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:N16" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N11">
-    <sortCondition ref="A1:A11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:N41" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C133476F-6A4D-4903-AB10-4ED2BF818DA5}" name="_id" dataDxfId="9"/>
@@ -1104,10 +1469,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1118,11 +1483,11 @@
     <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1160,10 +1525,10 @@
         <v>53</v>
       </c>
       <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
         <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
       </c>
       <c r="N1" t="s">
         <v>54</v>
@@ -1174,7 +1539,7 @@
         <v>10000001</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1195,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1210,328 +1575,303 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20000001</v>
+        <v>10000002</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20000002</v>
+        <v>10000003</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10000004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10001001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
-        <v>20000005</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="I5" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="15">
-        <v>5</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>30000001</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="I6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>30000002</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="I7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7">
+      <c r="I9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10001002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10001003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>30000003</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
-        <v>30000004</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="I9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>30000005</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>30000006</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11" s="15"/>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <v>10000003</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>90</v>
+      <c r="A12">
+        <v>10001004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>194</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1539,127 +1879,901 @@
       <c r="M12">
         <v>3</v>
       </c>
-      <c r="N12" s="15"/>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
-        <v>10000004</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13">
+        <v>10001005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10001006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10001007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10010001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10010002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10010003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10010004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10010005</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10010006</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10010007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10100001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10100002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10100003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10100004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10100005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10100006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10100007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20000001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20000002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20000003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>700</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>20000004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D33">
+        <v>700</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>177</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20000005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30000002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30000003</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>30000004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>30000005</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30000006</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <v>10000002</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="I14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>10000005</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="I15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>10000006</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="I16" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="15">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16" s="15"/>
+      <c r="I40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>30000007</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgns\OneDrive\문서\GitHub\Unity\Project_D\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01810519-BB96-42E8-9B16-1503542FEB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3407F21-73A7-484F-92FC-BECEC2F3DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="183">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력물약(소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Items/Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Consume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,26 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 갑옷이다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 바지다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 투구다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레더 팬츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,23 +401,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낡은 롱소드다. 조금 무딘 듯 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작은 열쇠다. 어떠한 상자를 여는 데 필요할 것 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동으로 만든 반지다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동으로 만든 목걸이다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 롱 소드다. 조금 무딘 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 투구다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 갑옷이다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 바지다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonPants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 신발이다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동으로 만든 반지다. 누군가 소중히 차고 있던 느낌이 든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동으로 만든 목걸이다. 누군가의 소중한 염원이 느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드 소드다. 관리가 잘 된 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 투구다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 아머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 갑옷이다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 팬츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 바지다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonPants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 신발이다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은으로 만든 반지다. 사랑하는 사람과 약속의 증표로 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은으로 만든 목걸이다. 누군가의 무사를 기원할 때 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스타드 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스타드 소드다. 노련한 전사가 쓴 듯한 느낌을 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 투구다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 갑옷이다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 레깅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 바지다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RarePants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 신발이다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금으로 만든 반지다. 사랑의 결실의 의미로 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금으로 만든 목걸이다. 누군가의 목표를 향한 열정이 느껴진다. 무슨 목표였을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라디우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라디우스다. 날카롭게 벼려져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 투구다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 갑옷이다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 레깅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 바지다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniquePants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 신발이다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금으로 만든 반지다. 누군가의 이름이 쓰여져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금으로 만든 목걸이다. 로켓이지만 사진부분이 열리지 않는다. 아마 소중한 사람의 사진일 것으로 추측된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력물약이다. HP를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/HighHpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나물약이다. MP를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/HighMpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 검. 비밀을 간직한 느낌이 든다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +1023,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -758,8 +1071,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:N16" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:N41" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
     <sortCondition ref="A1:A16"/>
   </sortState>
@@ -1101,28 +1414,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.3984375" customWidth="1"/>
-    <col min="14" max="14" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1142,10 +1455,10 @@
         <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
         <v>51</v>
@@ -1157,16 +1470,16 @@
         <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -1192,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1207,27 +1520,27 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000002</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -1235,25 +1548,28 @@
       <c r="M3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000003</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -1261,25 +1577,28 @@
       <c r="M4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000004</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -1287,118 +1606,112 @@
       <c r="M5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000005</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000006</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20000001</v>
+        <v>10000007</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20000002</v>
+        <v>10001001</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1407,97 +1720,103 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20000005</v>
+        <v>10001002</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>30000001</v>
+        <v>10001003</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>30000002</v>
+        <v>10001004</v>
       </c>
       <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1505,97 +1824,109 @@
       <c r="M12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>30000003</v>
+        <v>10001005</v>
       </c>
       <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10001006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>30000004</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10001007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="I14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>30000005</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>30000006</v>
+        <v>10010001</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1607,6 +1938,785 @@
         <v>1</v>
       </c>
       <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10010002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10010003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10010004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10010005</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10010006</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10010007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10100001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10100002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10100003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10100004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10100005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>154</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10100006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>154</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10100007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>154</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20000001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20000002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20000003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>700</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>20000004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>700</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20000005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30000002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30000003</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>30000004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>30000005</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30000006</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>30000007</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
         <v>2</v>
       </c>
     </row>
@@ -1628,27 +2738,27 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.8984375" customWidth="1"/>
-    <col min="5" max="5" width="47.3984375" customWidth="1"/>
-    <col min="6" max="6" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +2773,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1677,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1691,7 +2801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1705,7 +2815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -1719,7 +2829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -1733,7 +2843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -1747,7 +2857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -1761,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>8</v>
       </c>
@@ -1775,7 +2885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -1789,7 +2899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1803,15 +2913,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
@@ -1827,7 +2937,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>1</v>
       </c>
@@ -1841,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>2</v>
       </c>
@@ -1855,7 +2965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>3</v>
       </c>
@@ -1869,7 +2979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>4</v>
       </c>
@@ -1883,7 +2993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>5</v>
       </c>
@@ -1897,7 +3007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>6</v>
       </c>
@@ -1911,14 +3021,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>1</v>
       </c>
@@ -1944,7 +3054,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>2</v>
       </c>
@@ -1955,7 +3065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <v>3</v>
       </c>
@@ -1969,7 +3079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>4</v>
       </c>
@@ -1983,7 +3093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <v>5</v>
       </c>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgns\OneDrive\문서\GitHub\Unity\Project_D\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01810519-BB96-42E8-9B16-1503542FEB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3017DF9-116C-424A-BFEF-1760E4DAF405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="190">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력물약(소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Items/Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Consume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,26 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 갑옷이다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 바지다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 투구다. 상당히 오래돼 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레더 팬츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,23 +401,399 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낡은 롱소드다. 조금 무딘 듯 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작은 열쇠다. 어떠한 상자를 여는 데 필요할 것 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동으로 만든 반지다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동으로 만든 목걸이다. 누군가의 이름이 새겨져 있던 흔적이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 롱 소드다. 조금 무딘 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 투구다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 갑옷이다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 바지다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonPants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽으로 만든 신발이다. 상당히 오래돼 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동으로 만든 반지다. 누군가 소중히 차고 있던 느낌이 든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동으로 만든 목걸이다. 누군가의 소중한 염원이 느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/CommonNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드 소드다. 관리가 잘 된 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 투구다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 아머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 갑옷이다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 팬츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 바지다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonPants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갬비슨 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽에 천을 덧대어 만든 신발이다. 살고자 하는 의지가 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은으로 만든 반지다. 사랑하는 사람과 약속의 증표로 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은으로 만든 목걸이다. 누군가의 무사를 기원할 때 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UncommonNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스타드 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스타드 소드다. 노련한 전사가 쓴 듯한 느낌을 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 투구다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 갑옷이다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 레깅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 바지다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RarePants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 엮어 만든 신발이다. 쓸만 해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금으로 만든 반지다. 사랑의 결실의 의미로 많이 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금으로 만든 목걸이다. 누군가의 목표를 향한 열정이 느껴진다. 무슨 목표였을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/RareNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라디우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라디우스다. 날카롭게 벼려져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 헬름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 투구다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 갑옷이다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 레깅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 바지다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniquePants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금으로 만든 신발이다. 매우 튼튼해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금으로 만든 반지다. 누군가의 이름이 쓰여져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금으로 만든 목걸이다. 로켓이지만 사진부분이 열리지 않는다. 아마 소중한 사람의 사진일 것으로 추측된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/UniqueNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력물약이다. HP를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/HighHpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나물약이다. MP를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/HighMpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 힘이 느껴지는 검. 비밀을 간직한 느낌이 든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicPants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicNecklace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,14 +1047,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -758,8 +1102,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:N16" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:N41" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
     <sortCondition ref="A1:A16"/>
   </sortState>
@@ -1101,28 +1445,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.3984375" customWidth="1"/>
-    <col min="14" max="14" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1142,10 +1486,10 @@
         <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
         <v>51</v>
@@ -1157,16 +1501,16 @@
         <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -1192,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1207,27 +1551,27 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000002</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -1235,25 +1579,28 @@
       <c r="M3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000003</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -1261,25 +1608,28 @@
       <c r="M4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000004</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -1287,118 +1637,112 @@
       <c r="M5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000005</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000006</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20000001</v>
+        <v>10000007</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20000002</v>
+        <v>10001001</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1407,97 +1751,103 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20000005</v>
+        <v>10001002</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>30000001</v>
+        <v>10001003</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>30000002</v>
+        <v>10001004</v>
       </c>
       <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1505,97 +1855,109 @@
       <c r="M12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>30000003</v>
+        <v>10001005</v>
       </c>
       <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10001006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>30000004</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10001007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="I14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>30000005</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>30000006</v>
+        <v>10010001</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1608,6 +1970,806 @@
       </c>
       <c r="M16">
         <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10010002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10010003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10010004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10010005</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10010006</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10010007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10100001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10100002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10100003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10100004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10100005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>154</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10100006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>154</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10100007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>154</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20000001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20000002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20000003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>700</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>20000004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>700</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20000005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30000002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30000003</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>30000004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>30000005</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30000006</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>30000007</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1628,27 +2790,27 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.8984375" customWidth="1"/>
-    <col min="5" max="5" width="47.3984375" customWidth="1"/>
-    <col min="6" max="6" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +2825,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1677,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1691,7 +2853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1705,7 +2867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -1719,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -1733,7 +2895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -1747,7 +2909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -1761,7 +2923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>8</v>
       </c>
@@ -1775,7 +2937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -1789,7 +2951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1803,15 +2965,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
@@ -1827,7 +2989,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>1</v>
       </c>
@@ -1841,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>2</v>
       </c>
@@ -1855,7 +3017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>3</v>
       </c>
@@ -1869,7 +3031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>4</v>
       </c>
@@ -1883,7 +3045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>5</v>
       </c>
@@ -1897,7 +3059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>6</v>
       </c>
@@ -1911,14 +3073,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +3094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>1</v>
       </c>
@@ -1944,7 +3106,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>2</v>
       </c>
@@ -1955,7 +3117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <v>3</v>
       </c>
@@ -1969,7 +3131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>4</v>
       </c>
@@ -1983,7 +3145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <v>5</v>
       </c>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3407F21-73A7-484F-92FC-BECEC2F3DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E04F3E-C2A8-41EC-A6DA-D550F8110B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="190">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,34 @@
   </si>
   <si>
     <t>신비한 힘이 느껴지는 검. 비밀을 간직한 느낌이 든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicHelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicPants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicBoots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items/EpicNecklace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1416,8 +1444,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2563,6 +2591,9 @@
       <c r="M35">
         <v>2</v>
       </c>
+      <c r="N35" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -2589,6 +2620,9 @@
       <c r="M36">
         <v>2</v>
       </c>
+      <c r="N36" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -2615,6 +2649,9 @@
       <c r="M37">
         <v>3</v>
       </c>
+      <c r="N37" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -2641,6 +2678,9 @@
       <c r="M38">
         <v>3</v>
       </c>
+      <c r="N38" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -2667,6 +2707,9 @@
       <c r="M39">
         <v>2</v>
       </c>
+      <c r="N39" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -2693,6 +2736,9 @@
       <c r="M40">
         <v>1</v>
       </c>
+      <c r="N40" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -2718,6 +2764,9 @@
       </c>
       <c r="M41">
         <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E04F3E-C2A8-41EC-A6DA-D550F8110B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D11E05-AAB3-4620-9473-5A38D7FE00FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -1444,8 +1444,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1521,7 +1521,7 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1561,6 +1561,21 @@
       <c r="C3" t="s">
         <v>85</v>
       </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3" t="s">
         <v>96</v>
       </c>
@@ -1590,6 +1605,21 @@
       <c r="C4" t="s">
         <v>92</v>
       </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
         <v>98</v>
       </c>
@@ -1619,6 +1649,21 @@
       <c r="C5" t="s">
         <v>68</v>
       </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5" t="s">
         <v>100</v>
       </c>
@@ -1648,6 +1693,21 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6" t="s">
         <v>103</v>
       </c>
@@ -1677,6 +1737,21 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7" t="s">
         <v>105</v>
       </c>
@@ -1706,6 +1781,21 @@
       <c r="C8" t="s">
         <v>71</v>
       </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8" t="s">
         <v>107</v>
       </c>
@@ -1739,7 +1829,7 @@
         <v>400</v>
       </c>
       <c r="E9">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1779,6 +1869,21 @@
       <c r="C10" t="s">
         <v>85</v>
       </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10" t="s">
         <v>114</v>
       </c>
@@ -1808,6 +1913,21 @@
       <c r="C11" t="s">
         <v>92</v>
       </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11" t="s">
         <v>117</v>
       </c>
@@ -1837,6 +1957,21 @@
       <c r="C12" t="s">
         <v>68</v>
       </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12" t="s">
         <v>120</v>
       </c>
@@ -1866,6 +2001,21 @@
       <c r="C13" t="s">
         <v>69</v>
       </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13" t="s">
         <v>123</v>
       </c>
@@ -1895,6 +2045,21 @@
       <c r="C14" t="s">
         <v>70</v>
       </c>
+      <c r="D14">
+        <v>160</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14" t="s">
         <v>126</v>
       </c>
@@ -1924,6 +2089,21 @@
       <c r="C15" t="s">
         <v>71</v>
       </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15" t="s">
         <v>129</v>
       </c>
@@ -1953,6 +2133,21 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
+      <c r="D16">
+        <v>600</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16" t="s">
         <v>132</v>
       </c>
@@ -1982,6 +2177,21 @@
       <c r="C17" t="s">
         <v>85</v>
       </c>
+      <c r="D17">
+        <v>300</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17" t="s">
         <v>135</v>
       </c>
@@ -2011,6 +2221,21 @@
       <c r="C18" t="s">
         <v>92</v>
       </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18" t="s">
         <v>138</v>
       </c>
@@ -2040,6 +2265,21 @@
       <c r="C19" t="s">
         <v>68</v>
       </c>
+      <c r="D19">
+        <v>300</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19" t="s">
         <v>141</v>
       </c>
@@ -2069,6 +2309,21 @@
       <c r="C20" t="s">
         <v>69</v>
       </c>
+      <c r="D20">
+        <v>300</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20" t="s">
         <v>144</v>
       </c>
@@ -2098,6 +2353,21 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
+      <c r="D21">
+        <v>260</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21" t="s">
         <v>147</v>
       </c>
@@ -2127,6 +2397,21 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
+      <c r="D22">
+        <v>260</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22" t="s">
         <v>150</v>
       </c>
@@ -2156,6 +2441,21 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
+      <c r="D23">
+        <v>800</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="I23" t="s">
         <v>153</v>
       </c>
@@ -2185,6 +2485,21 @@
       <c r="C24" t="s">
         <v>85</v>
       </c>
+      <c r="D24">
+        <v>400</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="I24" t="s">
         <v>157</v>
       </c>
@@ -2214,6 +2529,21 @@
       <c r="C25" t="s">
         <v>92</v>
       </c>
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25" t="s">
         <v>160</v>
       </c>
@@ -2243,6 +2573,21 @@
       <c r="C26" t="s">
         <v>68</v>
       </c>
+      <c r="D26">
+        <v>400</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="I26" t="s">
         <v>163</v>
       </c>
@@ -2272,6 +2617,21 @@
       <c r="C27" t="s">
         <v>69</v>
       </c>
+      <c r="D27">
+        <v>400</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="I27" t="s">
         <v>166</v>
       </c>
@@ -2301,6 +2661,21 @@
       <c r="C28" t="s">
         <v>70</v>
       </c>
+      <c r="D28">
+        <v>360</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="I28" t="s">
         <v>169</v>
       </c>
@@ -2330,6 +2705,21 @@
       <c r="C29" t="s">
         <v>71</v>
       </c>
+      <c r="D29">
+        <v>360</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
       <c r="I29" t="s">
         <v>172</v>
       </c>
@@ -2360,7 +2750,7 @@
         <v>55</v>
       </c>
       <c r="D30">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2404,7 +2794,7 @@
         <v>55</v>
       </c>
       <c r="D31">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2448,7 +2838,7 @@
         <v>55</v>
       </c>
       <c r="D32">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2492,7 +2882,7 @@
         <v>55</v>
       </c>
       <c r="D33">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2557,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2576,6 +2966,21 @@
       <c r="C35" t="s">
         <v>16</v>
       </c>
+      <c r="D35">
+        <v>10000</v>
+      </c>
+      <c r="E35">
+        <v>180</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="I35" t="s">
         <v>182</v>
       </c>
@@ -2605,6 +3010,21 @@
       <c r="C36" t="s">
         <v>85</v>
       </c>
+      <c r="D36">
+        <v>7000</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
       <c r="I36" t="s">
         <v>72</v>
       </c>
@@ -2634,6 +3054,21 @@
       <c r="C37" t="s">
         <v>92</v>
       </c>
+      <c r="D37">
+        <v>7000</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>45</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
       <c r="I37" t="s">
         <v>73</v>
       </c>
@@ -2663,6 +3098,21 @@
       <c r="C38" t="s">
         <v>68</v>
       </c>
+      <c r="D38">
+        <v>7000</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
       <c r="I38" t="s">
         <v>74</v>
       </c>
@@ -2692,6 +3142,21 @@
       <c r="C39" t="s">
         <v>69</v>
       </c>
+      <c r="D39">
+        <v>7000</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>45</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
       <c r="I39" t="s">
         <v>75</v>
       </c>
@@ -2721,6 +3186,21 @@
       <c r="C40" t="s">
         <v>70</v>
       </c>
+      <c r="D40">
+        <v>5000</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>43</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
       <c r="I40" t="s">
         <v>76</v>
       </c>
@@ -2749,6 +3229,21 @@
       </c>
       <c r="C41" t="s">
         <v>71</v>
+      </c>
+      <c r="D41">
+        <v>5000</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>43</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41" t="s">
         <v>77</v>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D11E05-AAB3-4620-9473-5A38D7FE00FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A09FE3-24D4-460B-B325-7EBAFA240836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -1444,8 +1444,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>70</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>71</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>70</v>
       </c>
       <c r="D14">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="D15">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2354,13 +2354,13 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2398,13 +2398,13 @@
         <v>71</v>
       </c>
       <c r="D22">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2662,13 +2662,13 @@
         <v>70</v>
       </c>
       <c r="D28">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>3.5</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2706,13 +2706,13 @@
         <v>71</v>
       </c>
       <c r="D29">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>3.5</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>180</v>
       </c>
       <c r="D34">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3187,13 +3187,13 @@
         <v>70</v>
       </c>
       <c r="D40">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>43</v>
+        <v>9.5</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3231,13 +3231,13 @@
         <v>71</v>
       </c>
       <c r="D41">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>43</v>
+        <v>9.5</v>
       </c>
       <c r="G41">
         <v>0</v>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A09FE3-24D4-460B-B325-7EBAFA240836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB283A03-0BF4-4909-A4AE-D24A9B5197A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="187">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>열쇠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작은 열쇠다. 어떠한 상자를 여는 데 필요할 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,10 +746,6 @@
   </si>
   <si>
     <t>Images/Items/HighMpPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1099,8 +1087,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:N41" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}" name="표1" displayName="표1" ref="A1:N40" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:N40" xr:uid="{7CA6A0F1-2006-44F2-BFBD-F16EC322364F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
     <sortCondition ref="A1:A16"/>
   </sortState>
@@ -1442,10 +1430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592392C-87E9-4C30-847D-A2C1E5C996FE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1512,7 +1500,7 @@
         <v>10000001</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1533,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1548,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1556,10 +1544,10 @@
         <v>10000002</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1577,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1592,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1600,10 +1588,10 @@
         <v>10000003</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1621,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1636,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1644,7 +1632,7 @@
         <v>10000004</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1665,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1680,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1688,7 +1676,7 @@
         <v>10000005</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -1709,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1724,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1732,7 +1720,7 @@
         <v>10000006</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1753,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1768,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1776,7 +1764,7 @@
         <v>10000007</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -1797,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1812,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1820,7 +1808,7 @@
         <v>10001001</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1841,22 +1829,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>110</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1864,10 +1852,10 @@
         <v>10001002</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -1885,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1900,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1908,10 +1896,10 @@
         <v>10001003</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -1929,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1944,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1952,7 +1940,7 @@
         <v>10001004</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -1973,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1988,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1996,7 +1984,7 @@
         <v>10001005</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -2017,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -2032,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2040,7 +2028,7 @@
         <v>10001006</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -2061,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2076,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -2084,7 +2072,7 @@
         <v>10001007</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>71</v>
@@ -2105,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2120,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2128,7 +2116,7 @@
         <v>10010001</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -2149,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2164,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -2172,10 +2160,10 @@
         <v>10010002</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <v>300</v>
@@ -2193,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -2208,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -2216,10 +2204,10 @@
         <v>10010003</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>300</v>
@@ -2237,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -2252,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2260,7 +2248,7 @@
         <v>10010004</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -2281,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -2296,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2304,7 +2292,7 @@
         <v>10010005</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -2325,13 +2313,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -2340,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -2348,7 +2336,7 @@
         <v>10010006</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
         <v>70</v>
@@ -2369,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2384,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2392,7 +2380,7 @@
         <v>10010007</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
         <v>71</v>
@@ -2413,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2428,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -2436,7 +2424,7 @@
         <v>10100001</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -2457,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
         <v>153</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>154</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -2480,10 +2468,10 @@
         <v>10100002</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>400</v>
@@ -2501,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2516,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2524,10 +2512,10 @@
         <v>10100003</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>400</v>
@@ -2545,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -2560,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2568,7 +2556,7 @@
         <v>10100004</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -2589,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2604,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2612,7 +2600,7 @@
         <v>10100005</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
@@ -2633,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2648,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2656,7 +2644,7 @@
         <v>10100006</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
@@ -2677,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2692,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2700,7 +2688,7 @@
         <v>10100007</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -2721,13 +2709,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2736,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2832,7 +2820,7 @@
         <v>20000003</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -2853,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J32">
         <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2868,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2876,7 +2864,7 @@
         <v>20000004</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
         <v>55</v>
@@ -2897,13 +2885,13 @@
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J33">
         <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2912,25 +2900,25 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>20000005</v>
+        <v>30000001</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>10000</v>
+      </c>
+      <c r="E34">
         <v>180</v>
       </c>
-      <c r="D34">
-        <v>1000</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
@@ -2941,39 +2929,42 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>30000001</v>
+        <v>30000002</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D35">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="E35">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2982,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2991,24 +2982,24 @@
         <v>78</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>30000002</v>
+        <v>30000003</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>7000</v>
@@ -3026,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -3035,24 +3026,24 @@
         <v>78</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>30000003</v>
+        <v>30000004</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D37">
         <v>7000</v>
@@ -3070,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3085,18 +3076,18 @@
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>30000004</v>
+        <v>30000005</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D38">
         <v>7000</v>
@@ -3114,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3123,33 +3114,33 @@
         <v>78</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>30000005</v>
+        <v>30000006</v>
       </c>
       <c r="B39" t="s">
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3158,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3167,24 +3158,24 @@
         <v>78</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>30000006</v>
+        <v>30000007</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D40">
         <v>6500</v>
@@ -3202,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3214,54 +3205,10 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>30000007</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41">
-        <v>6500</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>9.5</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>77</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>78</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>2</v>
-      </c>
-      <c r="N41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB283A03-0BF4-4909-A4AE-D24A9B5197A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A7668B-40CD-4E6C-99FB-50CE3713A248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -1432,8 +1432,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>70</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>71</v>
       </c>
       <c r="D15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2386,13 +2386,13 @@
         <v>71</v>
       </c>
       <c r="D22">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2650,13 +2650,13 @@
         <v>70</v>
       </c>
       <c r="D28">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>71</v>
       </c>
       <c r="D29">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>0</v>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A7668B-40CD-4E6C-99FB-50CE3713A248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B060CB2B-B554-492F-A87A-CF3D32A8E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
@@ -1432,8 +1432,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>16</v>
       </c>
       <c r="D34">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="E34">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>84</v>
       </c>
       <c r="D35">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3002,13 +3002,13 @@
         <v>90</v>
       </c>
       <c r="D36">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         <v>68</v>
       </c>
       <c r="D37">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>69</v>
       </c>
       <c r="D38">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3134,13 +3134,13 @@
         <v>70</v>
       </c>
       <c r="D39">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3178,13 +3178,13 @@
         <v>71</v>
       </c>
       <c r="D40">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G40">
         <v>0</v>

--- a/Assets/RawData/ItemDBSheet.xlsx
+++ b/Assets/RawData/ItemDBSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Work\Project_D\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgns\OneDrive\문서\GitHub\Unity\Project_D\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B060CB2B-B554-492F-A87A-CF3D32A8E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF148922-E79D-4DEE-A648-4B0765CECFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AEBC651-332F-4C8D-B65D-23949F2277D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Table" sheetId="3" r:id="rId1"/>
@@ -717,10 +717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백금으로 만든 목걸이다. 로켓이지만 사진부분이 열리지 않는다. 아마 소중한 사람의 사진일 것으로 추측된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Items/UniqueNecklace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,6 +778,10 @@
   </si>
   <si>
     <t>Images/Items/EpicNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금으로 만든 목걸이다. 열리지 않는 로켓은 소중한 사람의 사진일 것으로 추측된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1432,26 +1432,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.3984375" customWidth="1"/>
+    <col min="14" max="14" width="27.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10000002</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10000003</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10000004</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10000005</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10000006</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10000007</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>10001001</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10001002</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10001003</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10001004</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10001005</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10001006</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10001007</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10010001</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10010002</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10010003</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10010004</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10010005</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10010006</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>10010007</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10100001</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10100002</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>10100003</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>10100004</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>10100005</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10100006</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10100007</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2724,10 +2724,10 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>20000001</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>20000002</v>
       </c>
@@ -2815,12 +2815,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>20000003</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J32">
         <v>20</v>
@@ -2856,15 +2856,15 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>20000004</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
         <v>55</v>
@@ -2885,7 +2885,7 @@
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J33">
         <v>20</v>
@@ -2900,15 +2900,15 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>30000001</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2944,10 +2944,10 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>30000002</v>
       </c>
@@ -2988,10 +2988,10 @@
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>30000003</v>
       </c>
@@ -3032,10 +3032,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>30000004</v>
       </c>
@@ -3076,10 +3076,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>30000005</v>
       </c>
@@ -3120,10 +3120,10 @@
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>30000006</v>
       </c>
@@ -3164,10 +3164,10 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>30000007</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3229,27 +3229,27 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="47.375" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.8984375" customWidth="1"/>
+    <col min="5" max="5" width="47.3984375" customWidth="1"/>
+    <col min="6" max="6" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
         <v>8</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -3404,15 +3404,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6">
         <v>2</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6">
         <v>3</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6">
         <v>4</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="6">
         <v>5</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="7">
         <v>6</v>
       </c>
@@ -3512,14 +3512,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="12">
         <v>1</v>
       </c>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="12">
         <v>2</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="12">
         <v>3</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="12">
         <v>4</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="12">
         <v>5</v>
       </c>
